--- a/로그 연동 파일/logtest.xlsx
+++ b/로그 연동 파일/logtest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunq/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunq/Documents/GitHub/jongsulteam7/로그 연동 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E37CBE-4F1B-D240-916C-AF4890F2DA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AE78B5-246A-BB45-9122-3FFF69244872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{B89F0EFF-272B-C949-A9E7-1E5AA8892227}"/>
   </bookViews>
@@ -114,7 +114,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -472,10 +472,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
